--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H2">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I2">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J2">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.84809799766795</v>
+        <v>0.039133</v>
       </c>
       <c r="N2">
-        <v>3.84809799766795</v>
+        <v>0.117399</v>
       </c>
       <c r="O2">
-        <v>0.9413727237897793</v>
+        <v>0.00872147833139909</v>
       </c>
       <c r="P2">
-        <v>0.9413727237897793</v>
+        <v>0.00872147833139909</v>
       </c>
       <c r="Q2">
-        <v>11.74898474664501</v>
+        <v>0.152358426417</v>
       </c>
       <c r="R2">
-        <v>11.74898474664501</v>
+        <v>1.371225837753</v>
       </c>
       <c r="S2">
-        <v>0.792494404722817</v>
+        <v>0.005813747967900252</v>
       </c>
       <c r="T2">
-        <v>0.792494404722817</v>
+        <v>0.005813747967900252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H3">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I3">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J3">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2396537508385</v>
+        <v>4.187332</v>
       </c>
       <c r="N3">
-        <v>0.2396537508385</v>
+        <v>12.561996</v>
       </c>
       <c r="O3">
-        <v>0.05862727621022062</v>
+        <v>0.933220691088698</v>
       </c>
       <c r="P3">
-        <v>0.05862727621022062</v>
+        <v>0.9332206910886979</v>
       </c>
       <c r="Q3">
-        <v>0.7317090845358364</v>
+        <v>16.302744854868</v>
       </c>
       <c r="R3">
-        <v>0.7317090845358364</v>
+        <v>146.724703693812</v>
       </c>
       <c r="S3">
-        <v>0.04935535860194998</v>
+        <v>0.6220860375111467</v>
       </c>
       <c r="T3">
-        <v>0.04935535860194998</v>
+        <v>0.6220860375111466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.573574015746792</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H4">
-        <v>0.573574015746792</v>
+        <v>11.680047</v>
       </c>
       <c r="I4">
-        <v>0.158150236675233</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J4">
-        <v>0.158150236675233</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84809799766795</v>
+        <v>0.2605036666666667</v>
       </c>
       <c r="N4">
-        <v>3.84809799766795</v>
+        <v>0.7815110000000001</v>
       </c>
       <c r="O4">
-        <v>0.9413727237897793</v>
+        <v>0.05805783057990302</v>
       </c>
       <c r="P4">
-        <v>0.9413727237897793</v>
+        <v>0.05805783057990302</v>
       </c>
       <c r="Q4">
-        <v>2.207169021509596</v>
+        <v>1.014231690113</v>
       </c>
       <c r="R4">
-        <v>2.207169021509596</v>
+        <v>9.128085211017</v>
       </c>
       <c r="S4">
-        <v>0.1488783190669623</v>
+        <v>0.03870141984294324</v>
       </c>
       <c r="T4">
-        <v>0.1488783190669623</v>
+        <v>0.03870141984294324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7963256666666666</v>
+      </c>
+      <c r="H5">
+        <v>2.388977</v>
+      </c>
+      <c r="I5">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="J5">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.039133</v>
+      </c>
+      <c r="N5">
+        <v>0.117399</v>
+      </c>
+      <c r="O5">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="P5">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="Q5">
+        <v>0.03116261231366666</v>
+      </c>
+      <c r="R5">
+        <v>0.280463510823</v>
+      </c>
+      <c r="S5">
+        <v>0.001189114237221001</v>
+      </c>
+      <c r="T5">
+        <v>0.001189114237221001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.7963256666666666</v>
+      </c>
+      <c r="H6">
+        <v>2.388977</v>
+      </c>
+      <c r="I6">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="J6">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.187332</v>
+      </c>
+      <c r="N6">
+        <v>12.561996</v>
+      </c>
+      <c r="O6">
+        <v>0.933220691088698</v>
+      </c>
+      <c r="P6">
+        <v>0.9332206910886979</v>
+      </c>
+      <c r="Q6">
+        <v>3.334479946454667</v>
+      </c>
+      <c r="R6">
+        <v>30.010319518092</v>
+      </c>
+      <c r="S6">
+        <v>0.1272382924174249</v>
+      </c>
+      <c r="T6">
+        <v>0.1272382924174249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.7963256666666666</v>
+      </c>
+      <c r="H7">
+        <v>2.388977</v>
+      </c>
+      <c r="I7">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="J7">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2605036666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.7815110000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="P7">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="Q7">
+        <v>0.2074457560274444</v>
+      </c>
+      <c r="R7">
+        <v>1.867011804247</v>
+      </c>
+      <c r="S7">
+        <v>0.007915790225170758</v>
+      </c>
+      <c r="T7">
+        <v>0.007915790225170758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.188156</v>
+      </c>
+      <c r="H8">
+        <v>0.564468</v>
+      </c>
+      <c r="I8">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J8">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.039133</v>
+      </c>
+      <c r="N8">
+        <v>0.117399</v>
+      </c>
+      <c r="O8">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="P8">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="Q8">
+        <v>0.007363108748</v>
+      </c>
+      <c r="R8">
+        <v>0.06626797873199999</v>
+      </c>
+      <c r="S8">
+        <v>0.0002809641680332896</v>
+      </c>
+      <c r="T8">
+        <v>0.0002809641680332896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.188156</v>
+      </c>
+      <c r="H9">
+        <v>0.564468</v>
+      </c>
+      <c r="I9">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J9">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.187332</v>
+      </c>
+      <c r="N9">
+        <v>12.561996</v>
+      </c>
+      <c r="O9">
+        <v>0.933220691088698</v>
+      </c>
+      <c r="P9">
+        <v>0.9332206910886979</v>
+      </c>
+      <c r="Q9">
+        <v>0.787871639792</v>
+      </c>
+      <c r="R9">
+        <v>7.090844758128</v>
+      </c>
+      <c r="S9">
+        <v>0.03006389113176017</v>
+      </c>
+      <c r="T9">
+        <v>0.03006389113176016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.188156</v>
+      </c>
+      <c r="H10">
+        <v>0.564468</v>
+      </c>
+      <c r="I10">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J10">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2605036666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.7815110000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="P10">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="Q10">
+        <v>0.04901532790533333</v>
+      </c>
+      <c r="R10">
+        <v>0.441137951148</v>
+      </c>
+      <c r="S10">
+        <v>0.001870344618981969</v>
+      </c>
+      <c r="T10">
+        <v>0.001870344618981969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.923495</v>
+      </c>
+      <c r="I11">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J11">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.039133</v>
+      </c>
+      <c r="N11">
+        <v>0.117399</v>
+      </c>
+      <c r="O11">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="P11">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="Q11">
+        <v>0.01204637661166667</v>
+      </c>
+      <c r="R11">
+        <v>0.108417389505</v>
+      </c>
+      <c r="S11">
+        <v>0.0004596699978703891</v>
+      </c>
+      <c r="T11">
+        <v>0.000459669997870389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.573574015746792</v>
-      </c>
-      <c r="H5">
-        <v>0.573574015746792</v>
-      </c>
-      <c r="I5">
-        <v>0.158150236675233</v>
-      </c>
-      <c r="J5">
-        <v>0.158150236675233</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.2396537508385</v>
-      </c>
-      <c r="N5">
-        <v>0.2396537508385</v>
-      </c>
-      <c r="O5">
-        <v>0.05862727621022062</v>
-      </c>
-      <c r="P5">
-        <v>0.05862727621022062</v>
-      </c>
-      <c r="Q5">
-        <v>0.1374591642572196</v>
-      </c>
-      <c r="R5">
-        <v>0.1374591642572196</v>
-      </c>
-      <c r="S5">
-        <v>0.009271917608270647</v>
-      </c>
-      <c r="T5">
-        <v>0.009271917608270647</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.923495</v>
+      </c>
+      <c r="I12">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J12">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.187332</v>
+      </c>
+      <c r="N12">
+        <v>12.561996</v>
+      </c>
+      <c r="O12">
+        <v>0.933220691088698</v>
+      </c>
+      <c r="P12">
+        <v>0.9332206910886979</v>
+      </c>
+      <c r="Q12">
+        <v>1.288993388446667</v>
+      </c>
+      <c r="R12">
+        <v>11.60094049602</v>
+      </c>
+      <c r="S12">
+        <v>0.04918587615369668</v>
+      </c>
+      <c r="T12">
+        <v>0.04918587615369667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.923495</v>
+      </c>
+      <c r="I13">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J13">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2605036666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.7815110000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="P13">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="Q13">
+        <v>0.08019127788277779</v>
+      </c>
+      <c r="R13">
+        <v>0.721721500945</v>
+      </c>
+      <c r="S13">
+        <v>0.003059967799603793</v>
+      </c>
+      <c r="T13">
+        <v>0.003059967799603792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.964804</v>
+      </c>
+      <c r="I14">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J14">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.039133</v>
+      </c>
+      <c r="N14">
+        <v>0.117399</v>
+      </c>
+      <c r="O14">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="P14">
+        <v>0.00872147833139909</v>
+      </c>
+      <c r="Q14">
+        <v>0.02562955831066667</v>
+      </c>
+      <c r="R14">
+        <v>0.230666024796</v>
+      </c>
+      <c r="S14">
+        <v>0.0009779819603741569</v>
+      </c>
+      <c r="T14">
+        <v>0.0009779819603741569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.964804</v>
+      </c>
+      <c r="I15">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J15">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.187332</v>
+      </c>
+      <c r="N15">
+        <v>12.561996</v>
+      </c>
+      <c r="O15">
+        <v>0.933220691088698</v>
+      </c>
+      <c r="P15">
+        <v>0.9332206910886979</v>
+      </c>
+      <c r="Q15">
+        <v>2.742428887642667</v>
+      </c>
+      <c r="R15">
+        <v>24.681859988784</v>
+      </c>
+      <c r="S15">
+        <v>0.1046465938746694</v>
+      </c>
+      <c r="T15">
+        <v>0.1046465938746694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.964804</v>
+      </c>
+      <c r="I16">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J16">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2605036666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.7815110000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="P16">
+        <v>0.05805783057990302</v>
+      </c>
+      <c r="Q16">
+        <v>0.1706128820937778</v>
+      </c>
+      <c r="R16">
+        <v>1.535515938844</v>
+      </c>
+      <c r="S16">
+        <v>0.006510308093203245</v>
+      </c>
+      <c r="T16">
+        <v>0.006510308093203245</v>
       </c>
     </row>
   </sheetData>
